--- a/assets/Housing_Data.xlsx
+++ b/assets/Housing_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\IdeaProjects\CrashSight\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96AFB46-622F-4804-8080-A1C76C879484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8BEDF-D504-4BF6-B807-31F087F79A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1260" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{A5B0FCFF-E902-40E1-BB19-00C959B571DD}"/>
+    <workbookView xWindow="-26370" yWindow="-1560" windowWidth="21600" windowHeight="11835" tabRatio="991" activeTab="7" xr2:uid="{A5B0FCFF-E902-40E1-BB19-00C959B571DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Delinquent Mortgages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Builder's Sentiment" sheetId="5" r:id="rId5"/>
     <sheet name="Housing Inventory" sheetId="7" r:id="rId6"/>
     <sheet name="Mortgage Rates" sheetId="8" r:id="rId7"/>
-    <sheet name="Increase in Housing Prices vs R" sheetId="9" r:id="rId8"/>
+    <sheet name="Increase in H Price vs Rent" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>quarter</t>
   </si>
@@ -52,21 +52,6 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>10.50 T</t>
-  </si>
-  <si>
-    <t>10.76 T</t>
-  </si>
-  <si>
-    <t>10.99 T</t>
-  </si>
-  <si>
-    <t>11.25 T</t>
-  </si>
-  <si>
-    <t>9.90 T</t>
   </si>
 </sst>
 </file>
@@ -536,7 +521,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,8 +544,8 @@
       <c r="B2">
         <v>2021</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="C2" s="2">
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -570,8 +555,8 @@
       <c r="B3">
         <v>2021</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+      <c r="C3" s="2">
+        <v>10.76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -581,8 +566,8 @@
       <c r="B4">
         <v>2021</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+      <c r="C4" s="2">
+        <v>10.99</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -592,8 +577,8 @@
       <c r="B5">
         <v>2021</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+      <c r="C5" s="2">
+        <v>11.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -603,8 +588,8 @@
       <c r="B6">
         <v>2022</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
+      <c r="C6" s="2">
+        <v>9.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -614,8 +599,8 @@
       <c r="B7">
         <v>2022</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
+      <c r="C7" s="2">
+        <v>9.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -625,8 +610,8 @@
       <c r="B8">
         <v>2022</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+      <c r="C8" s="2">
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11AFEED-7B87-480C-8A09-47604F37672B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1153,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA14862-E5BB-4B0A-8420-55DEA71DD5EA}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
